--- a/biology/Botanique/Actinostrobus/Actinostrobus.xlsx
+++ b/biology/Botanique/Actinostrobus/Actinostrobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Actinostrobus est un genre de conifères de la famille des Cupressaceae.
 Le genre possède trois espèces, toutes endémiques du sud-ouest de l'Australie-Occidentale :
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des petits arbres atteignant 3 à 8 mètres de haut. Les feuilles, vivaces, sont de deux formes: les feuilles jeunes sont des aiguilles de 10 à 20 millimètres de long tandis que les feuilles adultes sont des écailles de 2 à 8 millimètres.
 Les fleurs mâles, petites, mesurent 3 à 6 millimètres de long et sont situées aux extrémités des branches. Les fleurs femelles, très discrètes au départ, arrivent à maturité en 18 à 20 mois et forment une galle en boule de 10 à 20 millimètres de diamètre, avec six écailles. Les cones restent fermés pendant plusieurs années ne s'ouvrant qu'après un feu de forêt: les graines tombent alors sur un sol débarrassé de sa végétation et plus riches en nutriments.
